--- a/excel/00_operation/sample.xlsx
+++ b/excel/00_operation/sample.xlsx
@@ -2,30 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\sample\excel\00_operation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DBE4A-C2F5-40B1-BFDE-6136AFF2D444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53AAFFC-CE5F-4E6B-9942-990B96C91541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2052" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="例" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>氏名</t>
   </si>
@@ -82,6 +85,44 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STDEV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STDEV.P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STDEV.S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VAR.S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VAR.P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -147,7 +188,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -237,6 +284,7 @@
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -516,8 +564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE74BD3-BB4B-477F-A1E1-6F27194046DE}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -613,6 +661,118 @@
         <v>43926</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <f>SUM(B2:B6)</f>
+        <v>355</v>
+      </c>
+      <c r="C7" s="8">
+        <f>STDEV(C2:C6)</f>
+        <v>18.849403173575553</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>71</v>
+      </c>
+      <c r="C8" s="8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>60.4</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <f>_xlfn.STDEV.P(B2:B6)</f>
+        <v>17.720045146669349</v>
+      </c>
+      <c r="C9" s="8">
+        <f>_xlfn.STDEV.P(C2:C6)</f>
+        <v>16.85941873256608</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>19.811612756158951</v>
+      </c>
+      <c r="C10" s="8">
+        <f>_xlfn.STDEV.S(C2:C6)</f>
+        <v>18.849403173575553</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <f>STDEV(B2:B6)</f>
+        <v>19.811612756158951</v>
+      </c>
+      <c r="C11" s="8">
+        <f>STDEV(C2:C6)</f>
+        <v>18.849403173575553</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <f>_xlfn.VAR.P(B2:B6)</f>
+        <v>314</v>
+      </c>
+      <c r="C12" s="8">
+        <f>_xlfn.VAR.P(C2:C6)</f>
+        <v>284.24</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <f>_xlfn.VAR.S(B2:B6)</f>
+        <v>392.5</v>
+      </c>
+      <c r="C13" s="8">
+        <f>_xlfn.VAR.S(C2:C6)</f>
+        <v>355.30000000000018</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <f>VAR(B2:B6)</f>
+        <v>392.5</v>
+      </c>
+      <c r="C14" s="8">
+        <f>VAR(C2:C6)</f>
+        <v>355.30000000000018</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
